--- a/Nettoyage/datasets_origine/election_tour2_2022.xlsx
+++ b/Nettoyage/datasets_origine/election_tour2_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL-I5\Desktop\MSPR\MSPR_EISI\Nettoyage\datasets_origine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1751218-E46E-41F9-83C4-B42851879986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873B983E-F8CC-4514-90A3-19603CE80973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6010" yWindow="1352" windowWidth="18032" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats par niveau Dpt T2 Fra" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="239">
   <si>
     <t>Code du département</t>
   </si>
@@ -70,9 +70,6 @@
     <t>% Exp/Vot</t>
   </si>
   <si>
-    <t>Sexe</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -94,16 +91,10 @@
     <t>Ain</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>MACRON</t>
   </si>
   <si>
     <t>Emmanuel</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>LE PEN</t>
@@ -1553,15 +1544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:Z108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,15 +1617,27 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2">
         <v>438250</v>
@@ -1679,48 +1682,42 @@
         <v>92.19</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <v>166635</v>
       </c>
       <c r="T2">
-        <v>166635</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="U2">
-        <v>38.020000000000003</v>
-      </c>
-      <c r="V2">
         <v>54.99</v>
       </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
       <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>136370</v>
+      </c>
+      <c r="Y2">
+        <v>31.12</v>
+      </c>
+      <c r="Z2">
+        <v>45.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X2" t="s">
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2">
-        <v>136370</v>
-      </c>
-      <c r="AA2">
-        <v>31.12</v>
-      </c>
-      <c r="AB2">
-        <v>45.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3">
         <v>373621</v>
@@ -1765,48 +1762,42 @@
         <v>92.69</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S3">
+        <v>102428</v>
       </c>
       <c r="T3">
-        <v>102428</v>
+        <v>27.41</v>
       </c>
       <c r="U3">
-        <v>27.41</v>
-      </c>
-      <c r="V3">
         <v>40.090000000000003</v>
       </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
       <c r="W3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>153069</v>
+      </c>
+      <c r="Y3">
+        <v>40.97</v>
+      </c>
+      <c r="Z3">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z3">
-        <v>153069</v>
-      </c>
-      <c r="AA3">
-        <v>40.97</v>
-      </c>
-      <c r="AB3">
-        <v>59.91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>249954</v>
@@ -1851,48 +1842,42 @@
         <v>89.22</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>87645</v>
       </c>
       <c r="T4">
-        <v>87645</v>
+        <v>35.06</v>
       </c>
       <c r="U4">
-        <v>35.06</v>
-      </c>
-      <c r="V4">
         <v>52.35</v>
       </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
       <c r="W4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>79762</v>
+      </c>
+      <c r="Y4">
+        <v>31.91</v>
       </c>
       <c r="Z4">
-        <v>79762</v>
-      </c>
-      <c r="AA4">
-        <v>31.91</v>
-      </c>
-      <c r="AB4">
         <v>47.65</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>128077</v>
@@ -1937,48 +1922,42 @@
         <v>89.21</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S5">
+        <v>41659</v>
       </c>
       <c r="T5">
-        <v>41659</v>
+        <v>32.53</v>
       </c>
       <c r="U5">
-        <v>32.53</v>
-      </c>
-      <c r="V5">
         <v>48.55</v>
       </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
       <c r="W5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>44139</v>
+      </c>
+      <c r="Y5">
+        <v>34.46</v>
       </c>
       <c r="Z5">
-        <v>44139</v>
-      </c>
-      <c r="AA5">
-        <v>34.46</v>
-      </c>
-      <c r="AB5">
         <v>51.45</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>113540</v>
@@ -2023,48 +2002,42 @@
         <v>88.89</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S6">
+        <v>42213</v>
       </c>
       <c r="T6">
-        <v>42213</v>
+        <v>37.18</v>
       </c>
       <c r="U6">
-        <v>37.18</v>
-      </c>
-      <c r="V6">
         <v>55.07</v>
       </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
       <c r="W6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>34446</v>
+      </c>
+      <c r="Y6">
+        <v>30.34</v>
       </c>
       <c r="Z6">
-        <v>34446</v>
-      </c>
-      <c r="AA6">
-        <v>30.34</v>
-      </c>
-      <c r="AB6">
         <v>44.93</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>778703</v>
@@ -2109,48 +2082,42 @@
         <v>93.07</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <v>261989</v>
       </c>
       <c r="T7">
-        <v>261989</v>
+        <v>33.64</v>
       </c>
       <c r="U7">
-        <v>33.64</v>
-      </c>
-      <c r="V7">
         <v>50.13</v>
       </c>
+      <c r="V7" t="s">
+        <v>25</v>
+      </c>
       <c r="W7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>260629</v>
+      </c>
+      <c r="Y7">
+        <v>33.47</v>
       </c>
       <c r="Z7">
-        <v>260629</v>
-      </c>
-      <c r="AA7">
-        <v>33.47</v>
-      </c>
-      <c r="AB7">
         <v>49.87</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>255891</v>
@@ -2195,48 +2162,42 @@
         <v>88.64</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S8">
+        <v>90053</v>
       </c>
       <c r="T8">
-        <v>90053</v>
+        <v>35.19</v>
       </c>
       <c r="U8">
-        <v>35.19</v>
-      </c>
-      <c r="V8">
         <v>52.43</v>
       </c>
+      <c r="V8" t="s">
+        <v>25</v>
+      </c>
       <c r="W8" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <v>81705</v>
+      </c>
+      <c r="Y8">
+        <v>31.93</v>
       </c>
       <c r="Z8">
-        <v>81705</v>
-      </c>
-      <c r="AA8">
-        <v>31.93</v>
-      </c>
-      <c r="AB8">
         <v>47.57</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>186220</v>
@@ -2281,48 +2242,42 @@
         <v>92.04</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S9">
+        <v>55093</v>
       </c>
       <c r="T9">
-        <v>55093</v>
+        <v>29.58</v>
       </c>
       <c r="U9">
-        <v>29.58</v>
-      </c>
-      <c r="V9">
         <v>43.33</v>
       </c>
+      <c r="V9" t="s">
+        <v>25</v>
+      </c>
       <c r="W9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>72040</v>
+      </c>
+      <c r="Y9">
+        <v>38.69</v>
       </c>
       <c r="Z9">
-        <v>72040</v>
-      </c>
-      <c r="AA9">
-        <v>38.69</v>
-      </c>
-      <c r="AB9">
         <v>56.67</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>119047</v>
@@ -2367,48 +2322,42 @@
         <v>86.13</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S10">
+        <v>39298</v>
       </c>
       <c r="T10">
-        <v>39298</v>
+        <v>33.01</v>
       </c>
       <c r="U10">
-        <v>33.01</v>
-      </c>
-      <c r="V10">
         <v>51.09</v>
       </c>
+      <c r="V10" t="s">
+        <v>25</v>
+      </c>
       <c r="W10" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>37616</v>
+      </c>
+      <c r="Y10">
+        <v>31.6</v>
       </c>
       <c r="Z10">
-        <v>37616</v>
-      </c>
-      <c r="AA10">
-        <v>31.6</v>
-      </c>
-      <c r="AB10">
         <v>48.91</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>205599</v>
@@ -2453,48 +2402,42 @@
         <v>92.33</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S11">
+        <v>68840</v>
       </c>
       <c r="T11">
-        <v>68840</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="U11">
-        <v>33.479999999999997</v>
-      </c>
-      <c r="V11">
         <v>48.32</v>
       </c>
+      <c r="V11" t="s">
+        <v>25</v>
+      </c>
       <c r="W11" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>73625</v>
+      </c>
+      <c r="Y11">
+        <v>35.81</v>
       </c>
       <c r="Z11">
-        <v>73625</v>
-      </c>
-      <c r="AA11">
-        <v>35.81</v>
-      </c>
-      <c r="AB11">
         <v>51.68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>279959</v>
@@ -2539,48 +2482,42 @@
         <v>89.66</v>
       </c>
       <c r="Q12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <v>85465</v>
       </c>
       <c r="T12">
-        <v>85465</v>
+        <v>30.53</v>
       </c>
       <c r="U12">
-        <v>30.53</v>
-      </c>
-      <c r="V12">
         <v>45.1</v>
       </c>
+      <c r="V12" t="s">
+        <v>25</v>
+      </c>
       <c r="W12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>104038</v>
+      </c>
+      <c r="Y12">
+        <v>37.159999999999997</v>
       </c>
       <c r="Z12">
-        <v>104038</v>
-      </c>
-      <c r="AA12">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="AB12">
         <v>54.9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>219480</v>
@@ -2625,48 +2562,42 @@
         <v>88.09</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S13">
+        <v>89955</v>
       </c>
       <c r="T13">
-        <v>89955</v>
+        <v>40.99</v>
       </c>
       <c r="U13">
-        <v>40.99</v>
-      </c>
-      <c r="V13">
         <v>60.07</v>
       </c>
+      <c r="V13" t="s">
+        <v>25</v>
+      </c>
       <c r="W13" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>59790</v>
+      </c>
+      <c r="Y13">
+        <v>27.24</v>
       </c>
       <c r="Z13">
-        <v>59790</v>
-      </c>
-      <c r="AA13">
-        <v>27.24</v>
-      </c>
-      <c r="AB13">
         <v>39.93</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1411580</v>
@@ -2711,48 +2642,42 @@
         <v>92.31</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S14">
+        <v>481129</v>
       </c>
       <c r="T14">
-        <v>481129</v>
+        <v>34.08</v>
       </c>
       <c r="U14">
-        <v>34.08</v>
-      </c>
-      <c r="V14">
         <v>52.08</v>
       </c>
+      <c r="V14" t="s">
+        <v>25</v>
+      </c>
       <c r="W14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>442759</v>
+      </c>
+      <c r="Y14">
+        <v>31.37</v>
       </c>
       <c r="Z14">
-        <v>442759</v>
-      </c>
-      <c r="AA14">
-        <v>31.37</v>
-      </c>
-      <c r="AB14">
         <v>47.92</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>512204</v>
@@ -2797,48 +2722,42 @@
         <v>91.58</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S15">
+        <v>218579</v>
       </c>
       <c r="T15">
-        <v>218579</v>
+        <v>42.67</v>
       </c>
       <c r="U15">
-        <v>42.67</v>
-      </c>
-      <c r="V15">
         <v>60.29</v>
       </c>
+      <c r="V15" t="s">
+        <v>25</v>
+      </c>
       <c r="W15" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>143960</v>
+      </c>
+      <c r="Y15">
+        <v>28.11</v>
       </c>
       <c r="Z15">
-        <v>143960</v>
-      </c>
-      <c r="AA15">
-        <v>28.11</v>
-      </c>
-      <c r="AB15">
         <v>39.71</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>115741</v>
@@ -2883,48 +2802,42 @@
         <v>89.27</v>
       </c>
       <c r="Q16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S16">
+        <v>45015</v>
       </c>
       <c r="T16">
-        <v>45015</v>
+        <v>38.89</v>
       </c>
       <c r="U16">
-        <v>38.89</v>
-      </c>
-      <c r="V16">
         <v>56.08</v>
       </c>
+      <c r="V16" t="s">
+        <v>25</v>
+      </c>
       <c r="W16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>35261</v>
+      </c>
+      <c r="Y16">
+        <v>30.47</v>
       </c>
       <c r="Z16">
-        <v>35261</v>
-      </c>
-      <c r="AA16">
-        <v>30.47</v>
-      </c>
-      <c r="AB16">
         <v>43.92</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>257508</v>
@@ -2969,48 +2882,42 @@
         <v>89.97</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <v>95656</v>
       </c>
       <c r="T17">
-        <v>95656</v>
+        <v>37.15</v>
       </c>
       <c r="U17">
-        <v>37.15</v>
-      </c>
-      <c r="V17">
         <v>55.06</v>
       </c>
+      <c r="V17" t="s">
+        <v>25</v>
+      </c>
       <c r="W17" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>78087</v>
+      </c>
+      <c r="Y17">
+        <v>30.32</v>
       </c>
       <c r="Z17">
-        <v>78087</v>
-      </c>
-      <c r="AA17">
-        <v>30.32</v>
-      </c>
-      <c r="AB17">
         <v>44.94</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>518929</v>
@@ -3055,48 +2962,42 @@
         <v>90.91</v>
       </c>
       <c r="Q18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S18">
+        <v>201159</v>
       </c>
       <c r="T18">
-        <v>201159</v>
+        <v>38.76</v>
       </c>
       <c r="U18">
-        <v>38.76</v>
-      </c>
-      <c r="V18">
         <v>56.32</v>
       </c>
+      <c r="V18" t="s">
+        <v>25</v>
+      </c>
       <c r="W18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>156020</v>
+      </c>
+      <c r="Y18">
+        <v>30.07</v>
       </c>
       <c r="Z18">
-        <v>156020</v>
-      </c>
-      <c r="AA18">
-        <v>30.07</v>
-      </c>
-      <c r="AB18">
         <v>43.68</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>224457</v>
@@ -3141,48 +3042,42 @@
         <v>90.07</v>
       </c>
       <c r="Q19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S19">
+        <v>77739</v>
       </c>
       <c r="T19">
-        <v>77739</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="U19">
-        <v>34.630000000000003</v>
-      </c>
-      <c r="V19">
         <v>52.56</v>
       </c>
+      <c r="V19" t="s">
+        <v>25</v>
+      </c>
       <c r="W19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>70160</v>
+      </c>
+      <c r="Y19">
+        <v>31.26</v>
       </c>
       <c r="Z19">
-        <v>70160</v>
-      </c>
-      <c r="AA19">
-        <v>31.26</v>
-      </c>
-      <c r="AB19">
         <v>47.44</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>185031</v>
@@ -3227,48 +3122,42 @@
         <v>86.09</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S20">
+        <v>68272</v>
       </c>
       <c r="T20">
-        <v>68272</v>
+        <v>36.9</v>
       </c>
       <c r="U20">
-        <v>36.9</v>
-      </c>
-      <c r="V20">
         <v>55.78</v>
       </c>
+      <c r="V20" t="s">
+        <v>25</v>
+      </c>
       <c r="W20" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>54131</v>
+      </c>
+      <c r="Y20">
+        <v>29.26</v>
       </c>
       <c r="Z20">
-        <v>54131</v>
-      </c>
-      <c r="AA20">
-        <v>29.26</v>
-      </c>
-      <c r="AB20">
         <v>44.22</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>113904</v>
@@ -3313,48 +3202,42 @@
         <v>90.69</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S21">
+        <v>26144</v>
       </c>
       <c r="T21">
-        <v>26144</v>
+        <v>22.95</v>
       </c>
       <c r="U21">
-        <v>22.95</v>
-      </c>
-      <c r="V21">
         <v>41.68</v>
       </c>
+      <c r="V21" t="s">
+        <v>25</v>
+      </c>
       <c r="W21" t="s">
-        <v>27</v>
-      </c>
-      <c r="X21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>36584</v>
+      </c>
+      <c r="Y21">
+        <v>32.119999999999997</v>
       </c>
       <c r="Z21">
-        <v>36584</v>
-      </c>
-      <c r="AA21">
-        <v>32.119999999999997</v>
-      </c>
-      <c r="AB21">
         <v>58.32</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>129096</v>
@@ -3399,48 +3282,42 @@
         <v>90.29</v>
       </c>
       <c r="Q22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>25</v>
-      </c>
-      <c r="S22" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S22">
+        <v>29951</v>
       </c>
       <c r="T22">
-        <v>29951</v>
+        <v>23.2</v>
       </c>
       <c r="U22">
-        <v>23.2</v>
-      </c>
-      <c r="V22">
         <v>42.13</v>
       </c>
+      <c r="V22" t="s">
+        <v>25</v>
+      </c>
       <c r="W22" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>41137</v>
+      </c>
+      <c r="Y22">
+        <v>31.87</v>
       </c>
       <c r="Z22">
-        <v>41137</v>
-      </c>
-      <c r="AA22">
-        <v>31.87</v>
-      </c>
-      <c r="AB22">
         <v>57.87</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>366828</v>
@@ -3485,48 +3362,42 @@
         <v>91.03</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S23">
+        <v>144545</v>
       </c>
       <c r="T23">
-        <v>144545</v>
+        <v>39.4</v>
       </c>
       <c r="U23">
-        <v>39.4</v>
-      </c>
-      <c r="V23">
         <v>57.27</v>
       </c>
+      <c r="V23" t="s">
+        <v>25</v>
+      </c>
       <c r="W23" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>107866</v>
+      </c>
+      <c r="Y23">
+        <v>29.41</v>
       </c>
       <c r="Z23">
-        <v>107866</v>
-      </c>
-      <c r="AA23">
-        <v>29.41</v>
-      </c>
-      <c r="AB23">
         <v>42.73</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>471760</v>
@@ -3571,48 +3442,42 @@
         <v>89.73</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S24">
+        <v>209721</v>
       </c>
       <c r="T24">
-        <v>209721</v>
+        <v>44.46</v>
       </c>
       <c r="U24">
-        <v>44.46</v>
-      </c>
-      <c r="V24">
         <v>62.9</v>
       </c>
+      <c r="V24" t="s">
+        <v>25</v>
+      </c>
       <c r="W24" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>123689</v>
+      </c>
+      <c r="Y24">
+        <v>26.22</v>
       </c>
       <c r="Z24">
-        <v>123689</v>
-      </c>
-      <c r="AA24">
-        <v>26.22</v>
-      </c>
-      <c r="AB24">
         <v>37.1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>90958</v>
@@ -3657,48 +3522,42 @@
         <v>87</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>30554</v>
       </c>
       <c r="T25">
-        <v>30554</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="U25">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="V25">
         <v>52.04</v>
       </c>
+      <c r="V25" t="s">
+        <v>25</v>
+      </c>
       <c r="W25" t="s">
-        <v>27</v>
-      </c>
-      <c r="X25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>28153</v>
+      </c>
+      <c r="Y25">
+        <v>30.95</v>
       </c>
       <c r="Z25">
-        <v>28153</v>
-      </c>
-      <c r="AA25">
-        <v>30.95</v>
-      </c>
-      <c r="AB25">
         <v>47.96</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>318129</v>
@@ -3743,48 +3602,42 @@
         <v>87.92</v>
       </c>
       <c r="Q26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S26">
+        <v>111182</v>
       </c>
       <c r="T26">
-        <v>111182</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="U26">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="V26">
         <v>51.5</v>
       </c>
+      <c r="V26" t="s">
+        <v>25</v>
+      </c>
       <c r="W26" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>104687</v>
+      </c>
+      <c r="Y26">
+        <v>32.909999999999997</v>
       </c>
       <c r="Z26">
-        <v>104687</v>
-      </c>
-      <c r="AA26">
-        <v>32.909999999999997</v>
-      </c>
-      <c r="AB26">
         <v>48.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>368437</v>
@@ -3829,48 +3682,42 @@
         <v>90.95</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>141917</v>
       </c>
       <c r="T27">
-        <v>141917</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="U27">
-        <v>38.520000000000003</v>
-      </c>
-      <c r="V27">
         <v>57.16</v>
       </c>
+      <c r="V27" t="s">
+        <v>25</v>
+      </c>
       <c r="W27" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>106348</v>
+      </c>
+      <c r="Y27">
+        <v>28.86</v>
       </c>
       <c r="Z27">
-        <v>106348</v>
-      </c>
-      <c r="AA27">
-        <v>28.86</v>
-      </c>
-      <c r="AB27">
         <v>42.84</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>382280</v>
@@ -3915,48 +3762,42 @@
         <v>90.28</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>143697</v>
       </c>
       <c r="T28">
-        <v>143697</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="U28">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="V28">
         <v>55.72</v>
       </c>
+      <c r="V28" t="s">
+        <v>25</v>
+      </c>
       <c r="W28" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>114217</v>
+      </c>
+      <c r="Y28">
+        <v>29.88</v>
       </c>
       <c r="Z28">
-        <v>114217</v>
-      </c>
-      <c r="AA28">
-        <v>29.88</v>
-      </c>
-      <c r="AB28">
         <v>44.28</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>432273</v>
@@ -4001,48 +3842,42 @@
         <v>92.18</v>
       </c>
       <c r="Q29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S29">
+        <v>146751</v>
       </c>
       <c r="T29">
-        <v>146751</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="U29">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="V29">
         <v>48.62</v>
       </c>
+      <c r="V29" t="s">
+        <v>25</v>
+      </c>
       <c r="W29" t="s">
-        <v>27</v>
-      </c>
-      <c r="X29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>155086</v>
+      </c>
+      <c r="Y29">
+        <v>35.880000000000003</v>
       </c>
       <c r="Z29">
-        <v>155086</v>
-      </c>
-      <c r="AA29">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="AB29">
         <v>51.38</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>304007</v>
@@ -4087,48 +3922,42 @@
         <v>91.77</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S30">
+        <v>109744</v>
       </c>
       <c r="T30">
-        <v>109744</v>
+        <v>36.1</v>
       </c>
       <c r="U30">
-        <v>36.1</v>
-      </c>
-      <c r="V30">
         <v>53.29</v>
       </c>
+      <c r="V30" t="s">
+        <v>25</v>
+      </c>
       <c r="W30" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>96185</v>
+      </c>
+      <c r="Y30">
+        <v>31.64</v>
       </c>
       <c r="Z30">
-        <v>96185</v>
-      </c>
-      <c r="AA30">
-        <v>31.64</v>
-      </c>
-      <c r="AB30">
         <v>46.71</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>709818</v>
@@ -4173,48 +4002,42 @@
         <v>89.89</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R31" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S31">
+        <v>332396</v>
       </c>
       <c r="T31">
-        <v>332396</v>
+        <v>46.83</v>
       </c>
       <c r="U31">
-        <v>46.83</v>
-      </c>
-      <c r="V31">
         <v>67.5</v>
       </c>
+      <c r="V31" t="s">
+        <v>25</v>
+      </c>
       <c r="W31" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>160073</v>
+      </c>
+      <c r="Y31">
+        <v>22.55</v>
       </c>
       <c r="Z31">
-        <v>160073</v>
-      </c>
-      <c r="AA31">
-        <v>22.55</v>
-      </c>
-      <c r="AB31">
         <v>32.5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>555277</v>
@@ -4259,48 +4082,42 @@
         <v>90.92</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S32">
+        <v>177669</v>
       </c>
       <c r="T32">
-        <v>177669</v>
+        <v>32</v>
       </c>
       <c r="U32">
-        <v>32</v>
-      </c>
-      <c r="V32">
         <v>47.85</v>
       </c>
+      <c r="V32" t="s">
+        <v>25</v>
+      </c>
       <c r="W32" t="s">
-        <v>27</v>
-      </c>
-      <c r="X32" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>193666</v>
+      </c>
+      <c r="Y32">
+        <v>34.880000000000003</v>
       </c>
       <c r="Z32">
-        <v>193666</v>
-      </c>
-      <c r="AA32">
-        <v>34.880000000000003</v>
-      </c>
-      <c r="AB32">
         <v>52.15</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33">
         <v>930579</v>
@@ -4345,48 +4162,42 @@
         <v>89.94</v>
       </c>
       <c r="Q33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S33">
+        <v>409622</v>
       </c>
       <c r="T33">
-        <v>409622</v>
+        <v>44.02</v>
       </c>
       <c r="U33">
-        <v>44.02</v>
-      </c>
-      <c r="V33">
         <v>64.42</v>
       </c>
+      <c r="V33" t="s">
+        <v>25</v>
+      </c>
       <c r="W33" t="s">
-        <v>27</v>
-      </c>
-      <c r="X33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>226250</v>
+      </c>
+      <c r="Y33">
+        <v>24.31</v>
       </c>
       <c r="Z33">
-        <v>226250</v>
-      </c>
-      <c r="AA33">
-        <v>24.31</v>
-      </c>
-      <c r="AB33">
         <v>35.58</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>147268</v>
@@ -4431,48 +4242,42 @@
         <v>85.79</v>
       </c>
       <c r="Q34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R34" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S34">
+        <v>55559</v>
       </c>
       <c r="T34">
-        <v>55559</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="U34">
-        <v>37.729999999999997</v>
-      </c>
-      <c r="V34">
         <v>55.7</v>
       </c>
+      <c r="V34" t="s">
+        <v>25</v>
+      </c>
       <c r="W34" t="s">
-        <v>27</v>
-      </c>
-      <c r="X34" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>44188</v>
+      </c>
+      <c r="Y34">
+        <v>30.01</v>
       </c>
       <c r="Z34">
-        <v>44188</v>
-      </c>
-      <c r="AA34">
-        <v>30.01</v>
-      </c>
-      <c r="AB34">
         <v>44.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>1158551</v>
@@ -4517,48 +4322,42 @@
         <v>90.82</v>
       </c>
       <c r="Q35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S35">
+        <v>484771</v>
       </c>
       <c r="T35">
-        <v>484771</v>
+        <v>41.84</v>
       </c>
       <c r="U35">
-        <v>41.84</v>
-      </c>
-      <c r="V35">
         <v>61.37</v>
       </c>
+      <c r="V35" t="s">
+        <v>25</v>
+      </c>
       <c r="W35" t="s">
-        <v>27</v>
-      </c>
-      <c r="X35" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>305112</v>
+      </c>
+      <c r="Y35">
+        <v>26.34</v>
       </c>
       <c r="Z35">
-        <v>305112</v>
-      </c>
-      <c r="AA35">
-        <v>26.34</v>
-      </c>
-      <c r="AB35">
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>847479</v>
@@ -4603,48 +4402,42 @@
         <v>90.88</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R36" t="s">
-        <v>25</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S36">
+        <v>297066</v>
       </c>
       <c r="T36">
-        <v>297066</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="U36">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="V36">
         <v>52.58</v>
       </c>
+      <c r="V36" t="s">
+        <v>25</v>
+      </c>
       <c r="W36" t="s">
-        <v>27</v>
-      </c>
-      <c r="X36" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>267908</v>
+      </c>
+      <c r="Y36">
+        <v>31.61</v>
       </c>
       <c r="Z36">
-        <v>267908</v>
-      </c>
-      <c r="AA36">
-        <v>31.61</v>
-      </c>
-      <c r="AB36">
         <v>47.42</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>771870</v>
@@ -4689,48 +4482,42 @@
         <v>91.28</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S37" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S37">
+        <v>390330</v>
       </c>
       <c r="T37">
-        <v>390330</v>
+        <v>50.57</v>
       </c>
       <c r="U37">
-        <v>50.57</v>
-      </c>
-      <c r="V37">
         <v>70.94</v>
       </c>
+      <c r="V37" t="s">
+        <v>25</v>
+      </c>
       <c r="W37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>159930</v>
+      </c>
+      <c r="Y37">
+        <v>20.72</v>
       </c>
       <c r="Z37">
-        <v>159930</v>
-      </c>
-      <c r="AA37">
-        <v>20.72</v>
-      </c>
-      <c r="AB37">
         <v>29.06</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <v>166057</v>
@@ -4775,48 +4562,42 @@
         <v>89.7</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S38">
+        <v>57558</v>
       </c>
       <c r="T38">
-        <v>57558</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="U38">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="V38">
         <v>51.4</v>
       </c>
+      <c r="V38" t="s">
+        <v>25</v>
+      </c>
       <c r="W38" t="s">
-        <v>27</v>
-      </c>
-      <c r="X38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X38">
+        <v>54429</v>
+      </c>
+      <c r="Y38">
+        <v>32.78</v>
       </c>
       <c r="Z38">
-        <v>54429</v>
-      </c>
-      <c r="AA38">
-        <v>32.78</v>
-      </c>
-      <c r="AB38">
         <v>48.6</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>440750</v>
@@ -4861,48 +4642,42 @@
         <v>90.56</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R39" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S39">
+        <v>188421</v>
       </c>
       <c r="T39">
-        <v>188421</v>
+        <v>42.75</v>
       </c>
       <c r="U39">
-        <v>42.75</v>
-      </c>
-      <c r="V39">
         <v>62.72</v>
       </c>
+      <c r="V39" t="s">
+        <v>25</v>
+      </c>
       <c r="W39" t="s">
-        <v>27</v>
-      </c>
-      <c r="X39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>112019</v>
+      </c>
+      <c r="Y39">
+        <v>25.42</v>
       </c>
       <c r="Z39">
-        <v>112019</v>
-      </c>
-      <c r="AA39">
-        <v>25.42</v>
-      </c>
-      <c r="AB39">
         <v>37.28</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>885672</v>
@@ -4947,48 +4722,42 @@
         <v>91.61</v>
       </c>
       <c r="Q40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R40" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S40">
+        <v>359596</v>
       </c>
       <c r="T40">
-        <v>359596</v>
+        <v>40.6</v>
       </c>
       <c r="U40">
-        <v>40.6</v>
-      </c>
-      <c r="V40">
         <v>59.82</v>
       </c>
+      <c r="V40" t="s">
+        <v>25</v>
+      </c>
       <c r="W40" t="s">
-        <v>27</v>
-      </c>
-      <c r="X40" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>241584</v>
+      </c>
+      <c r="Y40">
+        <v>27.28</v>
       </c>
       <c r="Z40">
-        <v>241584</v>
-      </c>
-      <c r="AA40">
-        <v>27.28</v>
-      </c>
-      <c r="AB40">
         <v>40.18</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>190644</v>
@@ -5033,48 +4802,42 @@
         <v>89.61</v>
       </c>
       <c r="Q41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R41" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S41">
+        <v>68846</v>
       </c>
       <c r="T41">
-        <v>68846</v>
+        <v>36.11</v>
       </c>
       <c r="U41">
-        <v>36.11</v>
-      </c>
-      <c r="V41">
         <v>53.07</v>
       </c>
+      <c r="V41" t="s">
+        <v>25</v>
+      </c>
       <c r="W41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>60884</v>
+      </c>
+      <c r="Y41">
+        <v>31.94</v>
       </c>
       <c r="Z41">
-        <v>60884</v>
-      </c>
-      <c r="AA41">
-        <v>31.94</v>
-      </c>
-      <c r="AB41">
         <v>46.93</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C42">
         <v>329376</v>
@@ -5119,48 +4882,42 @@
         <v>88.6</v>
       </c>
       <c r="Q42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R42" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S42">
+        <v>128363</v>
       </c>
       <c r="T42">
-        <v>128363</v>
+        <v>38.97</v>
       </c>
       <c r="U42">
-        <v>38.97</v>
-      </c>
-      <c r="V42">
         <v>56.54</v>
       </c>
+      <c r="V42" t="s">
+        <v>25</v>
+      </c>
       <c r="W42" t="s">
-        <v>27</v>
-      </c>
-      <c r="X42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>98682</v>
+      </c>
+      <c r="Y42">
+        <v>29.96</v>
       </c>
       <c r="Z42">
-        <v>98682</v>
-      </c>
-      <c r="AA42">
-        <v>29.96</v>
-      </c>
-      <c r="AB42">
         <v>43.46</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>244640</v>
@@ -5205,48 +4962,42 @@
         <v>91.18</v>
       </c>
       <c r="Q43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R43" t="s">
-        <v>25</v>
-      </c>
-      <c r="S43" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S43">
+        <v>91360</v>
       </c>
       <c r="T43">
-        <v>91360</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="U43">
-        <v>37.340000000000003</v>
-      </c>
-      <c r="V43">
         <v>53.81</v>
       </c>
+      <c r="V43" t="s">
+        <v>25</v>
+      </c>
       <c r="W43" t="s">
-        <v>27</v>
-      </c>
-      <c r="X43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X43">
+        <v>78434</v>
+      </c>
+      <c r="Y43">
+        <v>32.06</v>
       </c>
       <c r="Z43">
-        <v>78434</v>
-      </c>
-      <c r="AA43">
-        <v>32.06</v>
-      </c>
-      <c r="AB43">
         <v>46.19</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44">
         <v>513962</v>
@@ -5291,48 +5042,42 @@
         <v>91.24</v>
       </c>
       <c r="Q44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R44" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S44">
+        <v>194879</v>
       </c>
       <c r="T44">
-        <v>194879</v>
+        <v>37.92</v>
       </c>
       <c r="U44">
-        <v>37.92</v>
-      </c>
-      <c r="V44">
         <v>56.64</v>
       </c>
+      <c r="V44" t="s">
+        <v>25</v>
+      </c>
       <c r="W44" t="s">
-        <v>27</v>
-      </c>
-      <c r="X44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>149174</v>
+      </c>
+      <c r="Y44">
+        <v>29.02</v>
       </c>
       <c r="Z44">
-        <v>149174</v>
-      </c>
-      <c r="AA44">
-        <v>29.02</v>
-      </c>
-      <c r="AB44">
         <v>43.36</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>180716</v>
@@ -5377,48 +5122,42 @@
         <v>89.09</v>
       </c>
       <c r="Q45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R45" t="s">
-        <v>25</v>
-      </c>
-      <c r="S45" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S45">
+        <v>62372</v>
       </c>
       <c r="T45">
-        <v>62372</v>
+        <v>34.51</v>
       </c>
       <c r="U45">
-        <v>34.51</v>
-      </c>
-      <c r="V45">
         <v>50.16</v>
       </c>
+      <c r="V45" t="s">
+        <v>25</v>
+      </c>
       <c r="W45" t="s">
-        <v>27</v>
-      </c>
-      <c r="X45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>61980</v>
+      </c>
+      <c r="Y45">
+        <v>34.299999999999997</v>
       </c>
       <c r="Z45">
-        <v>61980</v>
-      </c>
-      <c r="AA45">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="AB45">
         <v>49.84</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>1057081</v>
@@ -5463,48 +5202,42 @@
         <v>90.68</v>
       </c>
       <c r="Q46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R46" t="s">
-        <v>25</v>
-      </c>
-      <c r="S46" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S46">
+        <v>505179</v>
       </c>
       <c r="T46">
-        <v>505179</v>
+        <v>47.79</v>
       </c>
       <c r="U46">
-        <v>47.79</v>
-      </c>
-      <c r="V46">
         <v>69.48</v>
       </c>
+      <c r="V46" t="s">
+        <v>25</v>
+      </c>
       <c r="W46" t="s">
-        <v>27</v>
-      </c>
-      <c r="X46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>221934</v>
+      </c>
+      <c r="Y46">
+        <v>20.99</v>
       </c>
       <c r="Z46">
-        <v>221934</v>
-      </c>
-      <c r="AA46">
-        <v>20.99</v>
-      </c>
-      <c r="AB46">
         <v>30.52</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>457763</v>
@@ -5549,48 +5282,42 @@
         <v>91.88</v>
       </c>
       <c r="Q47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R47" t="s">
-        <v>25</v>
-      </c>
-      <c r="S47" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S47">
+        <v>180882</v>
       </c>
       <c r="T47">
-        <v>180882</v>
+        <v>39.51</v>
       </c>
       <c r="U47">
-        <v>39.51</v>
-      </c>
-      <c r="V47">
         <v>57.57</v>
       </c>
+      <c r="V47" t="s">
+        <v>25</v>
+      </c>
       <c r="W47" t="s">
-        <v>27</v>
-      </c>
-      <c r="X47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>133331</v>
+      </c>
+      <c r="Y47">
+        <v>29.13</v>
       </c>
       <c r="Z47">
-        <v>133331</v>
-      </c>
-      <c r="AA47">
-        <v>29.13</v>
-      </c>
-      <c r="AB47">
         <v>42.43</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48">
         <v>139238</v>
@@ -5635,48 +5362,42 @@
         <v>86.4</v>
       </c>
       <c r="Q48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R48" t="s">
-        <v>25</v>
-      </c>
-      <c r="S48" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S48">
+        <v>55130</v>
       </c>
       <c r="T48">
-        <v>55130</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="U48">
-        <v>39.590000000000003</v>
-      </c>
-      <c r="V48">
         <v>59.18</v>
       </c>
+      <c r="V48" t="s">
+        <v>25</v>
+      </c>
       <c r="W48" t="s">
-        <v>27</v>
-      </c>
-      <c r="X48" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>38032</v>
+      </c>
+      <c r="Y48">
+        <v>27.31</v>
       </c>
       <c r="Z48">
-        <v>38032</v>
-      </c>
-      <c r="AA48">
-        <v>27.31</v>
-      </c>
-      <c r="AB48">
         <v>40.82</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>241312</v>
@@ -5721,48 +5442,42 @@
         <v>89.32</v>
       </c>
       <c r="Q49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R49" t="s">
-        <v>25</v>
-      </c>
-      <c r="S49" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S49">
+        <v>81013</v>
       </c>
       <c r="T49">
-        <v>81013</v>
+        <v>33.57</v>
       </c>
       <c r="U49">
-        <v>33.57</v>
-      </c>
-      <c r="V49">
         <v>49.51</v>
       </c>
+      <c r="V49" t="s">
+        <v>25</v>
+      </c>
       <c r="W49" t="s">
-        <v>27</v>
-      </c>
-      <c r="X49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>82619</v>
+      </c>
+      <c r="Y49">
+        <v>34.24</v>
       </c>
       <c r="Z49">
-        <v>82619</v>
-      </c>
-      <c r="AA49">
-        <v>34.24</v>
-      </c>
-      <c r="AB49">
         <v>50.49</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50">
         <v>59801</v>
@@ -5807,48 +5522,42 @@
         <v>87.18</v>
       </c>
       <c r="Q50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R50" t="s">
-        <v>25</v>
-      </c>
-      <c r="S50" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S50">
+        <v>22067</v>
       </c>
       <c r="T50">
-        <v>22067</v>
+        <v>36.9</v>
       </c>
       <c r="U50">
-        <v>36.9</v>
-      </c>
-      <c r="V50">
         <v>54.2</v>
       </c>
+      <c r="V50" t="s">
+        <v>25</v>
+      </c>
       <c r="W50" t="s">
-        <v>27</v>
-      </c>
-      <c r="X50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>18647</v>
+      </c>
+      <c r="Y50">
+        <v>31.18</v>
       </c>
       <c r="Z50">
-        <v>18647</v>
-      </c>
-      <c r="AA50">
-        <v>31.18</v>
-      </c>
-      <c r="AB50">
         <v>45.8</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51">
         <v>589468</v>
@@ -5893,48 +5602,42 @@
         <v>91.6</v>
       </c>
       <c r="Q51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R51" t="s">
-        <v>25</v>
-      </c>
-      <c r="S51" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S51">
+        <v>274813</v>
       </c>
       <c r="T51">
-        <v>274813</v>
+        <v>46.62</v>
       </c>
       <c r="U51">
-        <v>46.62</v>
-      </c>
-      <c r="V51">
         <v>66.53</v>
       </c>
+      <c r="V51" t="s">
+        <v>25</v>
+      </c>
       <c r="W51" t="s">
-        <v>27</v>
-      </c>
-      <c r="X51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>138261</v>
+      </c>
+      <c r="Y51">
+        <v>23.46</v>
       </c>
       <c r="Z51">
-        <v>138261</v>
-      </c>
-      <c r="AA51">
-        <v>23.46</v>
-      </c>
-      <c r="AB51">
         <v>33.47</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C52">
         <v>384662</v>
@@ -5979,48 +5682,42 @@
         <v>91.31</v>
       </c>
       <c r="Q52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R52" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S52">
+        <v>159815</v>
       </c>
       <c r="T52">
-        <v>159815</v>
+        <v>41.55</v>
       </c>
       <c r="U52">
-        <v>41.55</v>
-      </c>
-      <c r="V52">
         <v>59.61</v>
       </c>
+      <c r="V52" t="s">
+        <v>25</v>
+      </c>
       <c r="W52" t="s">
-        <v>27</v>
-      </c>
-      <c r="X52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>108294</v>
+      </c>
+      <c r="Y52">
+        <v>28.15</v>
       </c>
       <c r="Z52">
-        <v>108294</v>
-      </c>
-      <c r="AA52">
-        <v>28.15</v>
-      </c>
-      <c r="AB52">
         <v>40.39</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53">
         <v>380766</v>
@@ -6065,48 +5762,42 @@
         <v>92.78</v>
       </c>
       <c r="Q53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R53" t="s">
-        <v>25</v>
-      </c>
-      <c r="S53" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S53">
+        <v>136025</v>
       </c>
       <c r="T53">
-        <v>136025</v>
+        <v>35.72</v>
       </c>
       <c r="U53">
-        <v>35.72</v>
-      </c>
-      <c r="V53">
         <v>52.1</v>
       </c>
+      <c r="V53" t="s">
+        <v>25</v>
+      </c>
       <c r="W53" t="s">
-        <v>27</v>
-      </c>
-      <c r="X53" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>125046</v>
+      </c>
+      <c r="Y53">
+        <v>32.840000000000003</v>
       </c>
       <c r="Z53">
-        <v>125046</v>
-      </c>
-      <c r="AA53">
-        <v>32.840000000000003</v>
-      </c>
-      <c r="AB53">
         <v>47.9</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54">
         <v>129397</v>
@@ -6151,48 +5842,42 @@
         <v>91.76</v>
       </c>
       <c r="Q54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R54" t="s">
-        <v>25</v>
-      </c>
-      <c r="S54" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S54">
+        <v>38230</v>
       </c>
       <c r="T54">
-        <v>38230</v>
+        <v>29.54</v>
       </c>
       <c r="U54">
-        <v>29.54</v>
-      </c>
-      <c r="V54">
         <v>43.04</v>
       </c>
+      <c r="V54" t="s">
+        <v>25</v>
+      </c>
       <c r="W54" t="s">
-        <v>27</v>
-      </c>
-      <c r="X54" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>50586</v>
+      </c>
+      <c r="Y54">
+        <v>39.090000000000003</v>
       </c>
       <c r="Z54">
-        <v>50586</v>
-      </c>
-      <c r="AA54">
-        <v>39.090000000000003</v>
-      </c>
-      <c r="AB54">
         <v>56.96</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>224819</v>
@@ -6237,48 +5922,42 @@
         <v>91.65</v>
       </c>
       <c r="Q55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55" t="s">
-        <v>25</v>
-      </c>
-      <c r="S55" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S55">
+        <v>102263</v>
       </c>
       <c r="T55">
-        <v>102263</v>
+        <v>45.49</v>
       </c>
       <c r="U55">
-        <v>45.49</v>
-      </c>
-      <c r="V55">
         <v>64.209999999999994</v>
       </c>
+      <c r="V55" t="s">
+        <v>25</v>
+      </c>
       <c r="W55" t="s">
-        <v>27</v>
-      </c>
-      <c r="X55" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>57006</v>
+      </c>
+      <c r="Y55">
+        <v>25.36</v>
       </c>
       <c r="Z55">
-        <v>57006</v>
-      </c>
-      <c r="AA55">
-        <v>25.36</v>
-      </c>
-      <c r="AB55">
         <v>35.79</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56">
         <v>492287</v>
@@ -6323,48 +6002,42 @@
         <v>91.76</v>
       </c>
       <c r="Q56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56" t="s">
-        <v>25</v>
-      </c>
-      <c r="S56" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S56">
+        <v>179237</v>
       </c>
       <c r="T56">
-        <v>179237</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="U56">
-        <v>36.409999999999997</v>
-      </c>
-      <c r="V56">
         <v>54.41</v>
       </c>
+      <c r="V56" t="s">
+        <v>25</v>
+      </c>
       <c r="W56" t="s">
-        <v>27</v>
-      </c>
-      <c r="X56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>150177</v>
+      </c>
+      <c r="Y56">
+        <v>30.51</v>
       </c>
       <c r="Z56">
-        <v>150177</v>
-      </c>
-      <c r="AA56">
-        <v>30.51</v>
-      </c>
-      <c r="AB56">
         <v>45.59</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>134802</v>
@@ -6409,48 +6082,42 @@
         <v>92.28</v>
       </c>
       <c r="Q57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R57" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S57">
+        <v>41930</v>
       </c>
       <c r="T57">
-        <v>41930</v>
+        <v>31.1</v>
       </c>
       <c r="U57">
-        <v>31.1</v>
-      </c>
-      <c r="V57">
         <v>44.4</v>
       </c>
+      <c r="V57" t="s">
+        <v>25</v>
+      </c>
       <c r="W57" t="s">
-        <v>27</v>
-      </c>
-      <c r="X57" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>52499</v>
+      </c>
+      <c r="Y57">
+        <v>38.950000000000003</v>
       </c>
       <c r="Z57">
-        <v>52499</v>
-      </c>
-      <c r="AA57">
-        <v>38.950000000000003</v>
-      </c>
-      <c r="AB57">
         <v>55.6</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C58">
         <v>609316</v>
@@ -6495,48 +6162,42 @@
         <v>90.56</v>
       </c>
       <c r="Q58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58" t="s">
-        <v>25</v>
-      </c>
-      <c r="S58" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S58">
+        <v>269755</v>
       </c>
       <c r="T58">
-        <v>269755</v>
+        <v>44.27</v>
       </c>
       <c r="U58">
-        <v>44.27</v>
-      </c>
-      <c r="V58">
         <v>62.81</v>
       </c>
+      <c r="V58" t="s">
+        <v>25</v>
+      </c>
       <c r="W58" t="s">
-        <v>27</v>
-      </c>
-      <c r="X58" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>159717</v>
+      </c>
+      <c r="Y58">
+        <v>26.21</v>
       </c>
       <c r="Z58">
-        <v>159717</v>
-      </c>
-      <c r="AA58">
-        <v>26.21</v>
-      </c>
-      <c r="AB58">
         <v>37.19</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>746147</v>
@@ -6581,48 +6242,42 @@
         <v>92.74</v>
       </c>
       <c r="Q59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59" t="s">
-        <v>25</v>
-      </c>
-      <c r="S59" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S59">
+        <v>249556</v>
       </c>
       <c r="T59">
-        <v>249556</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="U59">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="V59">
         <v>50.46</v>
       </c>
+      <c r="V59" t="s">
+        <v>25</v>
+      </c>
       <c r="W59" t="s">
-        <v>27</v>
-      </c>
-      <c r="X59" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X59">
+        <v>244993</v>
+      </c>
+      <c r="Y59">
+        <v>32.83</v>
       </c>
       <c r="Z59">
-        <v>244993</v>
-      </c>
-      <c r="AA59">
-        <v>32.83</v>
-      </c>
-      <c r="AB59">
         <v>49.54</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60">
         <v>154239</v>
@@ -6667,48 +6322,42 @@
         <v>89.56</v>
       </c>
       <c r="Q60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60" t="s">
-        <v>25</v>
-      </c>
-      <c r="S60" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S60">
+        <v>50556</v>
       </c>
       <c r="T60">
-        <v>50556</v>
+        <v>32.78</v>
       </c>
       <c r="U60">
-        <v>32.78</v>
-      </c>
-      <c r="V60">
         <v>49.89</v>
       </c>
+      <c r="V60" t="s">
+        <v>25</v>
+      </c>
       <c r="W60" t="s">
-        <v>27</v>
-      </c>
-      <c r="X60" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>50779</v>
+      </c>
+      <c r="Y60">
+        <v>32.92</v>
       </c>
       <c r="Z60">
-        <v>50779</v>
-      </c>
-      <c r="AA60">
-        <v>32.92</v>
-      </c>
-      <c r="AB60">
         <v>50.11</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>1814746</v>
@@ -6753,48 +6402,42 @@
         <v>92.7</v>
       </c>
       <c r="Q61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61" t="s">
-        <v>25</v>
-      </c>
-      <c r="S61" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S61">
+        <v>633569</v>
       </c>
       <c r="T61">
-        <v>633569</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="U61">
-        <v>34.909999999999997</v>
-      </c>
-      <c r="V61">
         <v>52.83</v>
       </c>
+      <c r="V61" t="s">
+        <v>25</v>
+      </c>
       <c r="W61" t="s">
-        <v>27</v>
-      </c>
-      <c r="X61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>565618</v>
+      </c>
+      <c r="Y61">
+        <v>31.17</v>
       </c>
       <c r="Z61">
-        <v>565618</v>
-      </c>
-      <c r="AA61">
-        <v>31.17</v>
-      </c>
-      <c r="AB61">
         <v>47.17</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62">
         <v>564184</v>
@@ -6839,48 +6482,42 @@
         <v>92.27</v>
       </c>
       <c r="Q62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62" t="s">
-        <v>25</v>
-      </c>
-      <c r="S62" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S62">
+        <v>182791</v>
       </c>
       <c r="T62">
-        <v>182791</v>
+        <v>32.4</v>
       </c>
       <c r="U62">
-        <v>32.4</v>
-      </c>
-      <c r="V62">
         <v>47.27</v>
       </c>
+      <c r="V62" t="s">
+        <v>25</v>
+      </c>
       <c r="W62" t="s">
-        <v>27</v>
-      </c>
-      <c r="X62" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>203866</v>
+      </c>
+      <c r="Y62">
+        <v>36.130000000000003</v>
       </c>
       <c r="Z62">
-        <v>203866</v>
-      </c>
-      <c r="AA62">
-        <v>36.130000000000003</v>
-      </c>
-      <c r="AB62">
         <v>52.73</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C63">
         <v>205553</v>
@@ -6925,48 +6562,42 @@
         <v>91.73</v>
       </c>
       <c r="Q63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S63" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S63">
+        <v>79275</v>
       </c>
       <c r="T63">
-        <v>79275</v>
+        <v>38.57</v>
       </c>
       <c r="U63">
-        <v>38.57</v>
-      </c>
-      <c r="V63">
         <v>55.12</v>
       </c>
+      <c r="V63" t="s">
+        <v>25</v>
+      </c>
       <c r="W63" t="s">
-        <v>27</v>
-      </c>
-      <c r="X63" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>64551</v>
+      </c>
+      <c r="Y63">
+        <v>31.4</v>
       </c>
       <c r="Z63">
-        <v>64551</v>
-      </c>
-      <c r="AA63">
-        <v>31.4</v>
-      </c>
-      <c r="AB63">
         <v>44.88</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64">
         <v>1093839</v>
@@ -7011,48 +6642,42 @@
         <v>92.85</v>
       </c>
       <c r="Q64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S64" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S64">
+        <v>323661</v>
       </c>
       <c r="T64">
-        <v>323661</v>
+        <v>29.59</v>
       </c>
       <c r="U64">
-        <v>29.59</v>
-      </c>
-      <c r="V64">
         <v>42.5</v>
       </c>
+      <c r="V64" t="s">
+        <v>25</v>
+      </c>
       <c r="W64" t="s">
-        <v>27</v>
-      </c>
-      <c r="X64" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>437820</v>
+      </c>
+      <c r="Y64">
+        <v>40.03</v>
       </c>
       <c r="Z64">
-        <v>437820</v>
-      </c>
-      <c r="AA64">
-        <v>40.03</v>
-      </c>
-      <c r="AB64">
         <v>57.5</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65">
         <v>468144</v>
@@ -7097,48 +6722,42 @@
         <v>89.09</v>
       </c>
       <c r="Q65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65" t="s">
-        <v>25</v>
-      </c>
-      <c r="S65" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S65">
+        <v>188468</v>
       </c>
       <c r="T65">
-        <v>188468</v>
+        <v>40.26</v>
       </c>
       <c r="U65">
-        <v>40.26</v>
-      </c>
-      <c r="V65">
         <v>60.16</v>
       </c>
+      <c r="V65" t="s">
+        <v>25</v>
+      </c>
       <c r="W65" t="s">
-        <v>27</v>
-      </c>
-      <c r="X65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>124825</v>
+      </c>
+      <c r="Y65">
+        <v>26.66</v>
       </c>
       <c r="Z65">
-        <v>124825</v>
-      </c>
-      <c r="AA65">
-        <v>26.66</v>
-      </c>
-      <c r="AB65">
         <v>39.840000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66">
         <v>519954</v>
@@ -7183,48 +6802,42 @@
         <v>88.2</v>
       </c>
       <c r="Q66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R66" t="s">
-        <v>25</v>
-      </c>
-      <c r="S66" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S66">
+        <v>219719</v>
       </c>
       <c r="T66">
-        <v>219719</v>
+        <v>42.26</v>
       </c>
       <c r="U66">
-        <v>42.26</v>
-      </c>
-      <c r="V66">
         <v>63.05</v>
       </c>
+      <c r="V66" t="s">
+        <v>25</v>
+      </c>
       <c r="W66" t="s">
-        <v>27</v>
-      </c>
-      <c r="X66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>128742</v>
+      </c>
+      <c r="Y66">
+        <v>24.76</v>
       </c>
       <c r="Z66">
-        <v>128742</v>
-      </c>
-      <c r="AA66">
-        <v>24.76</v>
-      </c>
-      <c r="AB66">
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67">
         <v>177443</v>
@@ -7269,48 +6882,42 @@
         <v>87.5</v>
       </c>
       <c r="Q67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67" t="s">
-        <v>25</v>
-      </c>
-      <c r="S67" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S67">
+        <v>65085</v>
       </c>
       <c r="T67">
-        <v>65085</v>
+        <v>36.68</v>
       </c>
       <c r="U67">
-        <v>36.68</v>
-      </c>
-      <c r="V67">
         <v>55.5</v>
       </c>
+      <c r="V67" t="s">
+        <v>25</v>
+      </c>
       <c r="W67" t="s">
-        <v>27</v>
-      </c>
-      <c r="X67" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>52182</v>
+      </c>
+      <c r="Y67">
+        <v>29.41</v>
       </c>
       <c r="Z67">
-        <v>52182</v>
-      </c>
-      <c r="AA67">
-        <v>29.41</v>
-      </c>
-      <c r="AB67">
         <v>44.5</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68">
         <v>362124</v>
@@ -7355,48 +6962,42 @@
         <v>90.63</v>
       </c>
       <c r="Q68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68" t="s">
-        <v>25</v>
-      </c>
-      <c r="S68" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S68">
+        <v>105893</v>
       </c>
       <c r="T68">
-        <v>105893</v>
+        <v>29.24</v>
       </c>
       <c r="U68">
-        <v>29.24</v>
-      </c>
-      <c r="V68">
         <v>43.67</v>
       </c>
+      <c r="V68" t="s">
+        <v>25</v>
+      </c>
       <c r="W68" t="s">
-        <v>27</v>
-      </c>
-      <c r="X68" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>136610</v>
+      </c>
+      <c r="Y68">
+        <v>37.72</v>
       </c>
       <c r="Z68">
-        <v>136610</v>
-      </c>
-      <c r="AA68">
-        <v>37.72</v>
-      </c>
-      <c r="AB68">
         <v>56.33</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69">
         <v>778994</v>
@@ -7441,48 +7042,42 @@
         <v>93.11</v>
       </c>
       <c r="Q69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R69" t="s">
-        <v>25</v>
-      </c>
-      <c r="S69" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S69">
+        <v>319370</v>
       </c>
       <c r="T69">
-        <v>319370</v>
+        <v>41</v>
       </c>
       <c r="U69">
+        <v>59</v>
+      </c>
+      <c r="V69" t="s">
+        <v>25</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>221958</v>
+      </c>
+      <c r="Y69">
+        <v>28.49</v>
+      </c>
+      <c r="Z69">
         <v>41</v>
       </c>
-      <c r="V69">
-        <v>59</v>
-      </c>
-      <c r="W69" t="s">
-        <v>27</v>
-      </c>
-      <c r="X69" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z69">
-        <v>221958</v>
-      </c>
-      <c r="AA69">
-        <v>28.49</v>
-      </c>
-      <c r="AB69">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C70">
         <v>531918</v>
@@ -7527,48 +7122,42 @@
         <v>92.82</v>
       </c>
       <c r="Q70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70" t="s">
-        <v>25</v>
-      </c>
-      <c r="S70" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S70">
+        <v>191814</v>
       </c>
       <c r="T70">
-        <v>191814</v>
+        <v>36.06</v>
       </c>
       <c r="U70">
-        <v>36.06</v>
-      </c>
-      <c r="V70">
         <v>52.9</v>
       </c>
+      <c r="V70" t="s">
+        <v>25</v>
+      </c>
       <c r="W70" t="s">
-        <v>27</v>
-      </c>
-      <c r="X70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>170781</v>
+      </c>
+      <c r="Y70">
+        <v>32.11</v>
       </c>
       <c r="Z70">
-        <v>170781</v>
-      </c>
-      <c r="AA70">
-        <v>32.11</v>
-      </c>
-      <c r="AB70">
         <v>47.1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71">
         <v>1181791</v>
@@ -7613,48 +7202,42 @@
         <v>92.55</v>
       </c>
       <c r="Q71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R71" t="s">
-        <v>25</v>
-      </c>
-      <c r="S71" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S71">
+        <v>550592</v>
       </c>
       <c r="T71">
-        <v>550592</v>
+        <v>46.59</v>
       </c>
       <c r="U71">
-        <v>46.59</v>
-      </c>
-      <c r="V71">
         <v>68.650000000000006</v>
       </c>
+      <c r="V71" t="s">
+        <v>25</v>
+      </c>
       <c r="W71" t="s">
-        <v>27</v>
-      </c>
-      <c r="X71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>251470</v>
+      </c>
+      <c r="Y71">
+        <v>21.28</v>
       </c>
       <c r="Z71">
-        <v>251470</v>
-      </c>
-      <c r="AA71">
-        <v>21.28</v>
-      </c>
-      <c r="AB71">
         <v>31.35</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C72">
         <v>177724</v>
@@ -7699,48 +7282,42 @@
         <v>89.76</v>
       </c>
       <c r="Q72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R72" t="s">
-        <v>25</v>
-      </c>
-      <c r="S72" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S72">
+        <v>53098</v>
       </c>
       <c r="T72">
-        <v>53098</v>
+        <v>29.88</v>
       </c>
       <c r="U72">
-        <v>29.88</v>
-      </c>
-      <c r="V72">
         <v>43.12</v>
       </c>
+      <c r="V72" t="s">
+        <v>25</v>
+      </c>
       <c r="W72" t="s">
-        <v>27</v>
-      </c>
-      <c r="X72" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>70052</v>
+      </c>
+      <c r="Y72">
+        <v>39.42</v>
       </c>
       <c r="Z72">
-        <v>70052</v>
-      </c>
-      <c r="AA72">
-        <v>39.42</v>
-      </c>
-      <c r="AB72">
         <v>56.88</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>402996</v>
@@ -7785,48 +7362,42 @@
         <v>90.41</v>
       </c>
       <c r="Q73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R73" t="s">
-        <v>25</v>
-      </c>
-      <c r="S73" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S73">
+        <v>144990</v>
       </c>
       <c r="T73">
-        <v>144990</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="U73">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="V73">
         <v>53.33</v>
       </c>
+      <c r="V73" t="s">
+        <v>25</v>
+      </c>
       <c r="W73" t="s">
-        <v>27</v>
-      </c>
-      <c r="X73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>126860</v>
+      </c>
+      <c r="Y73">
+        <v>31.48</v>
       </c>
       <c r="Z73">
-        <v>126860</v>
-      </c>
-      <c r="AA73">
-        <v>31.48</v>
-      </c>
-      <c r="AB73">
         <v>46.67</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>411271</v>
@@ -7871,48 +7442,42 @@
         <v>90.87</v>
       </c>
       <c r="Q74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R74" t="s">
-        <v>25</v>
-      </c>
-      <c r="S74" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S74">
+        <v>154909</v>
       </c>
       <c r="T74">
-        <v>154909</v>
+        <v>37.67</v>
       </c>
       <c r="U74">
-        <v>37.67</v>
-      </c>
-      <c r="V74">
         <v>55.41</v>
       </c>
+      <c r="V74" t="s">
+        <v>25</v>
+      </c>
       <c r="W74" t="s">
-        <v>27</v>
-      </c>
-      <c r="X74" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>124658</v>
+      </c>
+      <c r="Y74">
+        <v>30.31</v>
       </c>
       <c r="Z74">
-        <v>124658</v>
-      </c>
-      <c r="AA74">
-        <v>30.31</v>
-      </c>
-      <c r="AB74">
         <v>44.59</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>320730</v>
@@ -7957,48 +7522,42 @@
         <v>90.55</v>
       </c>
       <c r="Q75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R75" t="s">
-        <v>25</v>
-      </c>
-      <c r="S75" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S75">
+        <v>125676</v>
       </c>
       <c r="T75">
-        <v>125676</v>
+        <v>39.18</v>
       </c>
       <c r="U75">
-        <v>39.18</v>
-      </c>
-      <c r="V75">
         <v>57.65</v>
       </c>
+      <c r="V75" t="s">
+        <v>25</v>
+      </c>
       <c r="W75" t="s">
-        <v>27</v>
-      </c>
-      <c r="X75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>92337</v>
+      </c>
+      <c r="Y75">
+        <v>28.79</v>
       </c>
       <c r="Z75">
-        <v>92337</v>
-      </c>
-      <c r="AA75">
-        <v>28.79</v>
-      </c>
-      <c r="AB75">
         <v>42.35</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>565833</v>
@@ -8043,48 +7602,42 @@
         <v>91.67</v>
       </c>
       <c r="Q76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R76" t="s">
-        <v>25</v>
-      </c>
-      <c r="S76" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S76">
+        <v>236764</v>
       </c>
       <c r="T76">
-        <v>236764</v>
+        <v>41.84</v>
       </c>
       <c r="U76">
-        <v>41.84</v>
-      </c>
-      <c r="V76">
         <v>61.69</v>
       </c>
+      <c r="V76" t="s">
+        <v>25</v>
+      </c>
       <c r="W76" t="s">
-        <v>27</v>
-      </c>
-      <c r="X76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>147032</v>
+      </c>
+      <c r="Y76">
+        <v>25.99</v>
       </c>
       <c r="Z76">
-        <v>147032</v>
-      </c>
-      <c r="AA76">
-        <v>25.99</v>
-      </c>
-      <c r="AB76">
         <v>38.31</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77">
         <v>1368623</v>
@@ -8129,48 +7682,42 @@
         <v>93.63</v>
       </c>
       <c r="Q77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R77" t="s">
-        <v>25</v>
-      </c>
-      <c r="S77" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S77">
+        <v>808107</v>
       </c>
       <c r="T77">
-        <v>808107</v>
+        <v>59.05</v>
       </c>
       <c r="U77">
-        <v>59.05</v>
-      </c>
-      <c r="V77">
         <v>85.11</v>
       </c>
+      <c r="V77" t="s">
+        <v>25</v>
+      </c>
       <c r="W77" t="s">
-        <v>27</v>
-      </c>
-      <c r="X77" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>141405</v>
+      </c>
+      <c r="Y77">
+        <v>10.33</v>
       </c>
       <c r="Z77">
-        <v>141405</v>
-      </c>
-      <c r="AA77">
-        <v>10.33</v>
-      </c>
-      <c r="AB77">
         <v>14.89</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78">
         <v>879653</v>
@@ -8215,48 +7762,42 @@
         <v>91.46</v>
       </c>
       <c r="Q78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R78" t="s">
-        <v>25</v>
-      </c>
-      <c r="S78" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S78">
+        <v>332146</v>
       </c>
       <c r="T78">
-        <v>332146</v>
+        <v>37.76</v>
       </c>
       <c r="U78">
-        <v>37.76</v>
-      </c>
-      <c r="V78">
         <v>55.28</v>
       </c>
+      <c r="V78" t="s">
+        <v>25</v>
+      </c>
       <c r="W78" t="s">
-        <v>27</v>
-      </c>
-      <c r="X78" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>268699</v>
+      </c>
+      <c r="Y78">
+        <v>30.55</v>
       </c>
       <c r="Z78">
-        <v>268699</v>
-      </c>
-      <c r="AA78">
-        <v>30.55</v>
-      </c>
-      <c r="AB78">
         <v>44.72</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <v>899809</v>
@@ -8301,48 +7842,42 @@
         <v>91.11</v>
       </c>
       <c r="Q79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R79" t="s">
-        <v>25</v>
-      </c>
-      <c r="S79" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S79">
+        <v>328698</v>
       </c>
       <c r="T79">
-        <v>328698</v>
+        <v>36.53</v>
       </c>
       <c r="U79">
-        <v>36.53</v>
-      </c>
-      <c r="V79">
         <v>56.97</v>
       </c>
+      <c r="V79" t="s">
+        <v>25</v>
+      </c>
       <c r="W79" t="s">
-        <v>27</v>
-      </c>
-      <c r="X79" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>248317</v>
+      </c>
+      <c r="Y79">
+        <v>27.6</v>
       </c>
       <c r="Z79">
-        <v>248317</v>
-      </c>
-      <c r="AA79">
-        <v>27.6</v>
-      </c>
-      <c r="AB79">
         <v>43.03</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80">
         <v>961628</v>
@@ -8387,48 +7922,42 @@
         <v>92.6</v>
       </c>
       <c r="Q80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R80" t="s">
-        <v>25</v>
-      </c>
-      <c r="S80" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S80">
+        <v>464913</v>
       </c>
       <c r="T80">
-        <v>464913</v>
+        <v>48.35</v>
       </c>
       <c r="U80">
-        <v>48.35</v>
-      </c>
-      <c r="V80">
         <v>71.05</v>
       </c>
+      <c r="V80" t="s">
+        <v>25</v>
+      </c>
       <c r="W80" t="s">
-        <v>27</v>
-      </c>
-      <c r="X80" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>189475</v>
+      </c>
+      <c r="Y80">
+        <v>19.7</v>
       </c>
       <c r="Z80">
-        <v>189475</v>
-      </c>
-      <c r="AA80">
-        <v>19.7</v>
-      </c>
-      <c r="AB80">
         <v>28.95</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81">
         <v>273265</v>
@@ -8473,48 +8002,42 @@
         <v>90.81</v>
       </c>
       <c r="Q81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R81" t="s">
-        <v>25</v>
-      </c>
-      <c r="S81" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S81">
+        <v>117804</v>
       </c>
       <c r="T81">
-        <v>117804</v>
+        <v>43.11</v>
       </c>
       <c r="U81">
-        <v>43.11</v>
-      </c>
-      <c r="V81">
         <v>62.13</v>
       </c>
+      <c r="V81" t="s">
+        <v>25</v>
+      </c>
       <c r="W81" t="s">
-        <v>27</v>
-      </c>
-      <c r="X81" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>71801</v>
+      </c>
+      <c r="Y81">
+        <v>26.28</v>
       </c>
       <c r="Z81">
-        <v>71801</v>
-      </c>
-      <c r="AA81">
-        <v>26.28</v>
-      </c>
-      <c r="AB81">
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82">
         <v>409946</v>
@@ -8559,48 +8082,42 @@
         <v>92.24</v>
       </c>
       <c r="Q82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R82" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S82">
+        <v>140763</v>
       </c>
       <c r="T82">
-        <v>140763</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="U82">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="V82">
         <v>49</v>
       </c>
+      <c r="V82" t="s">
+        <v>25</v>
+      </c>
       <c r="W82" t="s">
-        <v>27</v>
-      </c>
-      <c r="X82" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>146537</v>
+      </c>
+      <c r="Y82">
+        <v>35.75</v>
       </c>
       <c r="Z82">
-        <v>146537</v>
-      </c>
-      <c r="AA82">
-        <v>35.75</v>
-      </c>
-      <c r="AB82">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83">
         <v>298180</v>
@@ -8645,48 +8162,42 @@
         <v>88.76</v>
       </c>
       <c r="Q83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R83" t="s">
-        <v>25</v>
-      </c>
-      <c r="S83" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S83">
+        <v>106768</v>
       </c>
       <c r="T83">
-        <v>106768</v>
+        <v>35.81</v>
       </c>
       <c r="U83">
-        <v>35.81</v>
-      </c>
-      <c r="V83">
         <v>53.06</v>
       </c>
+      <c r="V83" t="s">
+        <v>25</v>
+      </c>
       <c r="W83" t="s">
-        <v>27</v>
-      </c>
-      <c r="X83" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>94441</v>
+      </c>
+      <c r="Y83">
+        <v>31.67</v>
       </c>
       <c r="Z83">
-        <v>94441</v>
-      </c>
-      <c r="AA83">
-        <v>31.67</v>
-      </c>
-      <c r="AB83">
         <v>46.94</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>188728</v>
@@ -8731,48 +8242,42 @@
         <v>89.89</v>
       </c>
       <c r="Q84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R84" t="s">
-        <v>25</v>
-      </c>
-      <c r="S84" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S84">
+        <v>62503</v>
       </c>
       <c r="T84">
-        <v>62503</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="U84">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="V84">
         <v>47.98</v>
       </c>
+      <c r="V84" t="s">
+        <v>25</v>
+      </c>
       <c r="W84" t="s">
-        <v>27</v>
-      </c>
-      <c r="X84" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>67770</v>
+      </c>
+      <c r="Y84">
+        <v>35.909999999999997</v>
       </c>
       <c r="Z84">
-        <v>67770</v>
-      </c>
-      <c r="AA84">
-        <v>35.909999999999997</v>
-      </c>
-      <c r="AB84">
         <v>52.02</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85">
         <v>821141</v>
@@ -8817,48 +8322,42 @@
         <v>92.74</v>
       </c>
       <c r="Q85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R85" t="s">
-        <v>25</v>
-      </c>
-      <c r="S85" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S85">
+        <v>252720</v>
       </c>
       <c r="T85">
-        <v>252720</v>
+        <v>30.78</v>
       </c>
       <c r="U85">
-        <v>30.78</v>
-      </c>
-      <c r="V85">
         <v>44.9</v>
       </c>
+      <c r="V85" t="s">
+        <v>25</v>
+      </c>
       <c r="W85" t="s">
-        <v>27</v>
-      </c>
-      <c r="X85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>310137</v>
+      </c>
+      <c r="Y85">
+        <v>37.770000000000003</v>
       </c>
       <c r="Z85">
-        <v>310137</v>
-      </c>
-      <c r="AA85">
-        <v>37.770000000000003</v>
-      </c>
-      <c r="AB85">
         <v>55.1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86">
         <v>411727</v>
@@ -8903,48 +8402,42 @@
         <v>91.88</v>
       </c>
       <c r="Q86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R86" t="s">
-        <v>25</v>
-      </c>
-      <c r="S86" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S86">
+        <v>134476</v>
       </c>
       <c r="T86">
-        <v>134476</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="U86">
-        <v>32.659999999999997</v>
-      </c>
-      <c r="V86">
         <v>48</v>
       </c>
+      <c r="V86" t="s">
+        <v>25</v>
+      </c>
       <c r="W86" t="s">
-        <v>27</v>
-      </c>
-      <c r="X86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>145707</v>
+      </c>
+      <c r="Y86">
+        <v>35.39</v>
       </c>
       <c r="Z86">
-        <v>145707</v>
-      </c>
-      <c r="AA86">
-        <v>35.39</v>
-      </c>
-      <c r="AB86">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87">
         <v>551209</v>
@@ -8989,48 +8482,42 @@
         <v>91.82</v>
       </c>
       <c r="Q87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R87" t="s">
-        <v>25</v>
-      </c>
-      <c r="S87" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S87">
+        <v>244494</v>
       </c>
       <c r="T87">
-        <v>244494</v>
+        <v>44.36</v>
       </c>
       <c r="U87">
-        <v>44.36</v>
-      </c>
-      <c r="V87">
         <v>61.86</v>
       </c>
+      <c r="V87" t="s">
+        <v>25</v>
+      </c>
       <c r="W87" t="s">
-        <v>27</v>
-      </c>
-      <c r="X87" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>150772</v>
+      </c>
+      <c r="Y87">
+        <v>27.35</v>
       </c>
       <c r="Z87">
-        <v>150772</v>
-      </c>
-      <c r="AA87">
-        <v>27.35</v>
-      </c>
-      <c r="AB87">
         <v>38.14</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C88">
         <v>306076</v>
@@ -9075,48 +8562,42 @@
         <v>90.54</v>
       </c>
       <c r="Q88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R88" t="s">
-        <v>25</v>
-      </c>
-      <c r="S88" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S88">
+        <v>125138</v>
       </c>
       <c r="T88">
-        <v>125138</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="U88">
-        <v>40.880000000000003</v>
-      </c>
-      <c r="V88">
         <v>60.12</v>
       </c>
+      <c r="V88" t="s">
+        <v>25</v>
+      </c>
       <c r="W88" t="s">
-        <v>27</v>
-      </c>
-      <c r="X88" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>83024</v>
+      </c>
+      <c r="Y88">
+        <v>27.13</v>
       </c>
       <c r="Z88">
-        <v>83024</v>
-      </c>
-      <c r="AA88">
-        <v>27.13</v>
-      </c>
-      <c r="AB88">
         <v>39.880000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89">
         <v>263777</v>
@@ -9161,48 +8642,42 @@
         <v>87.59</v>
       </c>
       <c r="Q89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R89" t="s">
-        <v>25</v>
-      </c>
-      <c r="S89" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S89">
+        <v>103329</v>
       </c>
       <c r="T89">
-        <v>103329</v>
+        <v>39.17</v>
       </c>
       <c r="U89">
-        <v>39.17</v>
-      </c>
-      <c r="V89">
         <v>59.18</v>
       </c>
+      <c r="V89" t="s">
+        <v>25</v>
+      </c>
       <c r="W89" t="s">
-        <v>27</v>
-      </c>
-      <c r="X89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X89">
+        <v>71263</v>
+      </c>
+      <c r="Y89">
+        <v>27.02</v>
       </c>
       <c r="Z89">
-        <v>71263</v>
-      </c>
-      <c r="AA89">
-        <v>27.02</v>
-      </c>
-      <c r="AB89">
         <v>40.82</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90">
         <v>277925</v>
@@ -9247,48 +8722,42 @@
         <v>91.56</v>
       </c>
       <c r="Q90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R90" t="s">
-        <v>25</v>
-      </c>
-      <c r="S90" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S90">
+        <v>91542</v>
       </c>
       <c r="T90">
-        <v>91542</v>
+        <v>32.94</v>
       </c>
       <c r="U90">
-        <v>32.94</v>
-      </c>
-      <c r="V90">
         <v>47.58</v>
       </c>
+      <c r="V90" t="s">
+        <v>25</v>
+      </c>
       <c r="W90" t="s">
-        <v>27</v>
-      </c>
-      <c r="X90" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>100853</v>
+      </c>
+      <c r="Y90">
+        <v>36.29</v>
       </c>
       <c r="Z90">
-        <v>100853</v>
-      </c>
-      <c r="AA90">
-        <v>36.29</v>
-      </c>
-      <c r="AB90">
         <v>52.42</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91">
         <v>237966</v>
@@ -9333,48 +8802,42 @@
         <v>91.47</v>
       </c>
       <c r="Q91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R91" t="s">
-        <v>25</v>
-      </c>
-      <c r="S91" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S91">
+        <v>78038</v>
       </c>
       <c r="T91">
-        <v>78038</v>
+        <v>32.79</v>
       </c>
       <c r="U91">
-        <v>32.79</v>
-      </c>
-      <c r="V91">
         <v>48.41</v>
       </c>
+      <c r="V91" t="s">
+        <v>25</v>
+      </c>
       <c r="W91" t="s">
-        <v>27</v>
-      </c>
-      <c r="X91" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>83170</v>
+      </c>
+      <c r="Y91">
+        <v>34.950000000000003</v>
       </c>
       <c r="Z91">
-        <v>83170</v>
-      </c>
-      <c r="AA91">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="AB91">
         <v>51.59</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92">
         <v>93723</v>
@@ -9419,48 +8882,42 @@
         <v>90.5</v>
       </c>
       <c r="Q92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R92" t="s">
-        <v>25</v>
-      </c>
-      <c r="S92" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S92">
+        <v>31987</v>
       </c>
       <c r="T92">
-        <v>31987</v>
+        <v>34.130000000000003</v>
       </c>
       <c r="U92">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="V92">
         <v>51.44</v>
       </c>
+      <c r="V92" t="s">
+        <v>25</v>
+      </c>
       <c r="W92" t="s">
-        <v>27</v>
-      </c>
-      <c r="X92" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>30202</v>
+      </c>
+      <c r="Y92">
+        <v>32.22</v>
       </c>
       <c r="Z92">
-        <v>30202</v>
-      </c>
-      <c r="AA92">
-        <v>32.22</v>
-      </c>
-      <c r="AB92">
         <v>48.56</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93">
         <v>799860</v>
@@ -9505,48 +8962,42 @@
         <v>91.45</v>
       </c>
       <c r="Q93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R93" t="s">
-        <v>25</v>
-      </c>
-      <c r="S93" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S93">
+        <v>338569</v>
       </c>
       <c r="T93">
-        <v>338569</v>
+        <v>42.33</v>
       </c>
       <c r="U93">
-        <v>42.33</v>
-      </c>
-      <c r="V93">
         <v>65.430000000000007</v>
       </c>
+      <c r="V93" t="s">
+        <v>25</v>
+      </c>
       <c r="W93" t="s">
-        <v>27</v>
-      </c>
-      <c r="X93" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>178908</v>
+      </c>
+      <c r="Y93">
+        <v>22.37</v>
       </c>
       <c r="Z93">
-        <v>178908</v>
-      </c>
-      <c r="AA93">
-        <v>22.37</v>
-      </c>
-      <c r="AB93">
         <v>34.57</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94">
         <v>998191</v>
@@ -9591,48 +9042,42 @@
         <v>92.73</v>
       </c>
       <c r="Q94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R94" t="s">
-        <v>25</v>
-      </c>
-      <c r="S94" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S94">
+        <v>552124</v>
       </c>
       <c r="T94">
-        <v>552124</v>
+        <v>55.31</v>
       </c>
       <c r="U94">
-        <v>55.31</v>
-      </c>
-      <c r="V94">
         <v>80.39</v>
       </c>
+      <c r="V94" t="s">
+        <v>25</v>
+      </c>
       <c r="W94" t="s">
-        <v>27</v>
-      </c>
-      <c r="X94" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>134685</v>
+      </c>
+      <c r="Y94">
+        <v>13.49</v>
       </c>
       <c r="Z94">
-        <v>134685</v>
-      </c>
-      <c r="AA94">
-        <v>13.49</v>
-      </c>
-      <c r="AB94">
         <v>19.61</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95">
         <v>794364</v>
@@ -9677,48 +9122,42 @@
         <v>90.97</v>
       </c>
       <c r="Q95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R95" t="s">
-        <v>25</v>
-      </c>
-      <c r="S95" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S95">
+        <v>326057</v>
       </c>
       <c r="T95">
-        <v>326057</v>
+        <v>41.05</v>
       </c>
       <c r="U95">
-        <v>41.05</v>
-      </c>
-      <c r="V95">
         <v>73.72</v>
       </c>
+      <c r="V95" t="s">
+        <v>25</v>
+      </c>
       <c r="W95" t="s">
-        <v>27</v>
-      </c>
-      <c r="X95" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>116225</v>
+      </c>
+      <c r="Y95">
+        <v>14.63</v>
       </c>
       <c r="Z95">
-        <v>116225</v>
-      </c>
-      <c r="AA95">
-        <v>14.63</v>
-      </c>
-      <c r="AB95">
         <v>26.28</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96">
         <v>796782</v>
@@ -9763,48 +9202,42 @@
         <v>91.62</v>
       </c>
       <c r="Q96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R96" t="s">
-        <v>25</v>
-      </c>
-      <c r="S96" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S96">
+        <v>376204</v>
       </c>
       <c r="T96">
-        <v>376204</v>
+        <v>47.22</v>
       </c>
       <c r="U96">
-        <v>47.22</v>
-      </c>
-      <c r="V96">
         <v>74.48</v>
       </c>
+      <c r="V96" t="s">
+        <v>25</v>
+      </c>
       <c r="W96" t="s">
-        <v>27</v>
-      </c>
-      <c r="X96" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>128873</v>
+      </c>
+      <c r="Y96">
+        <v>16.170000000000002</v>
       </c>
       <c r="Z96">
-        <v>128873</v>
-      </c>
-      <c r="AA96">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="AB96">
         <v>25.52</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97">
         <v>733876</v>
@@ -9849,48 +9282,42 @@
         <v>91.59</v>
       </c>
       <c r="Q97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R97" t="s">
-        <v>25</v>
-      </c>
-      <c r="S97" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S97">
+        <v>299829</v>
       </c>
       <c r="T97">
-        <v>299829</v>
+        <v>40.86</v>
       </c>
       <c r="U97">
-        <v>40.86</v>
-      </c>
-      <c r="V97">
         <v>66.150000000000006</v>
       </c>
+      <c r="V97" t="s">
+        <v>25</v>
+      </c>
       <c r="W97" t="s">
-        <v>27</v>
-      </c>
-      <c r="X97" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>153446</v>
+      </c>
+      <c r="Y97">
+        <v>20.91</v>
       </c>
       <c r="Z97">
-        <v>153446</v>
-      </c>
-      <c r="AA97">
-        <v>20.91</v>
-      </c>
-      <c r="AB97">
         <v>33.85</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C98">
         <v>315941</v>
@@ -9935,48 +9362,42 @@
         <v>88.78</v>
       </c>
       <c r="Q98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R98" t="s">
-        <v>25</v>
-      </c>
-      <c r="S98" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S98">
+        <v>40229</v>
       </c>
       <c r="T98">
-        <v>40229</v>
+        <v>12.73</v>
       </c>
       <c r="U98">
-        <v>12.73</v>
-      </c>
-      <c r="V98">
         <v>30.4</v>
       </c>
+      <c r="V98" t="s">
+        <v>25</v>
+      </c>
       <c r="W98" t="s">
-        <v>27</v>
-      </c>
-      <c r="X98" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>92106</v>
+      </c>
+      <c r="Y98">
+        <v>29.15</v>
       </c>
       <c r="Z98">
-        <v>92106</v>
-      </c>
-      <c r="AA98">
-        <v>29.15</v>
-      </c>
-      <c r="AB98">
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99">
         <v>304670</v>
@@ -10021,48 +9442,42 @@
         <v>86.6</v>
       </c>
       <c r="Q99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R99" t="s">
-        <v>25</v>
-      </c>
-      <c r="S99" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S99">
+        <v>46918</v>
       </c>
       <c r="T99">
-        <v>46918</v>
+        <v>15.4</v>
       </c>
       <c r="U99">
-        <v>15.4</v>
-      </c>
-      <c r="V99">
         <v>39.130000000000003</v>
       </c>
+      <c r="V99" t="s">
+        <v>25</v>
+      </c>
       <c r="W99" t="s">
-        <v>27</v>
-      </c>
-      <c r="X99" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>73000</v>
+      </c>
+      <c r="Y99">
+        <v>23.96</v>
       </c>
       <c r="Z99">
-        <v>73000</v>
-      </c>
-      <c r="AA99">
-        <v>23.96</v>
-      </c>
-      <c r="AB99">
         <v>60.87</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C100">
         <v>103058</v>
@@ -10107,48 +9522,42 @@
         <v>87.98</v>
       </c>
       <c r="Q100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R100" t="s">
-        <v>25</v>
-      </c>
-      <c r="S100" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S100">
+        <v>13834</v>
       </c>
       <c r="T100">
-        <v>13834</v>
+        <v>13.42</v>
       </c>
       <c r="U100">
-        <v>13.42</v>
-      </c>
-      <c r="V100">
         <v>39.22</v>
       </c>
+      <c r="V100" t="s">
+        <v>25</v>
+      </c>
       <c r="W100" t="s">
-        <v>27</v>
-      </c>
-      <c r="X100" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>21437</v>
+      </c>
+      <c r="Y100">
+        <v>20.8</v>
       </c>
       <c r="Z100">
-        <v>21437</v>
-      </c>
-      <c r="AA100">
-        <v>20.8</v>
-      </c>
-      <c r="AB100">
         <v>60.78</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>676080</v>
@@ -10193,48 +9602,42 @@
         <v>90.73</v>
       </c>
       <c r="Q101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R101" t="s">
-        <v>25</v>
-      </c>
-      <c r="S101" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S101">
+        <v>147297</v>
       </c>
       <c r="T101">
-        <v>147297</v>
+        <v>21.79</v>
       </c>
       <c r="U101">
-        <v>21.79</v>
-      </c>
-      <c r="V101">
         <v>40.44</v>
       </c>
+      <c r="V101" t="s">
+        <v>25</v>
+      </c>
       <c r="W101" t="s">
-        <v>27</v>
-      </c>
-      <c r="X101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>216967</v>
+      </c>
+      <c r="Y101">
+        <v>32.090000000000003</v>
       </c>
       <c r="Z101">
-        <v>216967</v>
-      </c>
-      <c r="AA101">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="AB101">
         <v>59.56</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102">
         <v>92421</v>
@@ -10279,48 +9682,42 @@
         <v>91.34</v>
       </c>
       <c r="Q102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R102" t="s">
-        <v>25</v>
-      </c>
-      <c r="S102" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S102">
+        <v>15708</v>
       </c>
       <c r="T102">
-        <v>15708</v>
+        <v>17</v>
       </c>
       <c r="U102">
-        <v>17</v>
-      </c>
-      <c r="V102">
         <v>40.9</v>
       </c>
+      <c r="V102" t="s">
+        <v>25</v>
+      </c>
       <c r="W102" t="s">
-        <v>27</v>
-      </c>
-      <c r="X102" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X102">
+        <v>22694</v>
+      </c>
+      <c r="Y102">
+        <v>24.56</v>
       </c>
       <c r="Z102">
-        <v>22694</v>
-      </c>
-      <c r="AA102">
-        <v>24.56</v>
-      </c>
-      <c r="AB102">
         <v>59.1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C103">
         <v>218713</v>
@@ -10365,48 +9762,42 @@
         <v>94.26</v>
       </c>
       <c r="Q103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R103" t="s">
-        <v>25</v>
-      </c>
-      <c r="S103" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S103">
+        <v>43795</v>
       </c>
       <c r="T103">
-        <v>43795</v>
+        <v>20.02</v>
       </c>
       <c r="U103">
-        <v>20.02</v>
-      </c>
-      <c r="V103">
         <v>61.03</v>
       </c>
+      <c r="V103" t="s">
+        <v>25</v>
+      </c>
       <c r="W103" t="s">
-        <v>27</v>
-      </c>
-      <c r="X103" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X103">
+        <v>27960</v>
+      </c>
+      <c r="Y103">
+        <v>12.78</v>
       </c>
       <c r="Z103">
-        <v>27960</v>
-      </c>
-      <c r="AA103">
-        <v>12.78</v>
-      </c>
-      <c r="AB103">
         <v>38.97</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C104">
         <v>205633</v>
@@ -10451,48 +9842,42 @@
         <v>95.26</v>
       </c>
       <c r="Q104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R104" t="s">
-        <v>25</v>
-      </c>
-      <c r="S104" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S104">
+        <v>42890</v>
       </c>
       <c r="T104">
-        <v>42890</v>
+        <v>20.86</v>
       </c>
       <c r="U104">
-        <v>20.86</v>
-      </c>
-      <c r="V104">
         <v>51.8</v>
       </c>
+      <c r="V104" t="s">
+        <v>25</v>
+      </c>
       <c r="W104" t="s">
-        <v>27</v>
-      </c>
-      <c r="X104" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X104">
+        <v>39913</v>
+      </c>
+      <c r="Y104">
+        <v>19.41</v>
       </c>
       <c r="Z104">
-        <v>39913</v>
-      </c>
-      <c r="AA104">
-        <v>19.41</v>
-      </c>
-      <c r="AB104">
         <v>48.2</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C105">
         <v>5043</v>
@@ -10537,48 +9922,42 @@
         <v>87.57</v>
       </c>
       <c r="Q105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R105" t="s">
-        <v>25</v>
-      </c>
-      <c r="S105" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S105">
+        <v>1243</v>
       </c>
       <c r="T105">
-        <v>1243</v>
+        <v>24.65</v>
       </c>
       <c r="U105">
-        <v>24.65</v>
-      </c>
-      <c r="V105">
         <v>49.31</v>
       </c>
+      <c r="V105" t="s">
+        <v>25</v>
+      </c>
       <c r="W105" t="s">
-        <v>27</v>
-      </c>
-      <c r="X105" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X105">
+        <v>1278</v>
+      </c>
+      <c r="Y105">
+        <v>25.34</v>
       </c>
       <c r="Z105">
-        <v>1278</v>
-      </c>
-      <c r="AA105">
-        <v>25.34</v>
-      </c>
-      <c r="AB105">
         <v>50.69</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106">
         <v>9514</v>
@@ -10623,48 +10002,42 @@
         <v>97.26</v>
       </c>
       <c r="Q106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R106" t="s">
-        <v>25</v>
-      </c>
-      <c r="S106" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S106">
+        <v>3831</v>
       </c>
       <c r="T106">
-        <v>3831</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="U106">
-        <v>40.270000000000003</v>
-      </c>
-      <c r="V106">
         <v>67.45</v>
       </c>
+      <c r="V106" t="s">
+        <v>25</v>
+      </c>
       <c r="W106" t="s">
-        <v>27</v>
-      </c>
-      <c r="X106" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X106">
+        <v>1849</v>
+      </c>
+      <c r="Y106">
+        <v>19.43</v>
       </c>
       <c r="Z106">
-        <v>1849</v>
-      </c>
-      <c r="AA106">
-        <v>19.43</v>
-      </c>
-      <c r="AB106">
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C107">
         <v>24435</v>
@@ -10709,48 +10082,42 @@
         <v>92.59</v>
       </c>
       <c r="Q107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R107" t="s">
-        <v>25</v>
-      </c>
-      <c r="S107" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S107">
+        <v>3850</v>
       </c>
       <c r="T107">
-        <v>3850</v>
+        <v>15.76</v>
       </c>
       <c r="U107">
-        <v>15.76</v>
-      </c>
-      <c r="V107">
         <v>44.58</v>
       </c>
+      <c r="V107" t="s">
+        <v>25</v>
+      </c>
       <c r="W107" t="s">
-        <v>27</v>
-      </c>
-      <c r="X107" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X107">
+        <v>4787</v>
+      </c>
+      <c r="Y107">
+        <v>19.59</v>
       </c>
       <c r="Z107">
-        <v>4787</v>
-      </c>
-      <c r="AA107">
-        <v>19.59</v>
-      </c>
-      <c r="AB107">
         <v>55.42</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C108">
         <v>1427918</v>
@@ -10795,39 +10162,33 @@
         <v>96.59</v>
       </c>
       <c r="Q108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R108" t="s">
-        <v>25</v>
-      </c>
-      <c r="S108" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="S108">
+        <v>458874</v>
       </c>
       <c r="T108">
-        <v>458874</v>
+        <v>32.14</v>
       </c>
       <c r="U108">
-        <v>32.14</v>
-      </c>
-      <c r="V108">
         <v>86.14</v>
       </c>
+      <c r="V108" t="s">
+        <v>25</v>
+      </c>
       <c r="W108" t="s">
-        <v>27</v>
-      </c>
-      <c r="X108" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="X108">
+        <v>73830</v>
+      </c>
+      <c r="Y108">
+        <v>5.17</v>
       </c>
       <c r="Z108">
-        <v>73830</v>
-      </c>
-      <c r="AA108">
-        <v>5.17</v>
-      </c>
-      <c r="AB108">
         <v>13.86</v>
       </c>
     </row>
